--- a/Output Data/Insertion Sort on Randomly-Ordered Array Results.xlsx
+++ b/Output Data/Insertion Sort on Randomly-Ordered Array Results.xlsx
@@ -398,10 +398,10 @@
         <v>1000.0</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>0.0</v>
+        <v>250768.0</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>457930.0</v>
+        <v>453260.0</v>
       </c>
     </row>
     <row r="3">
@@ -409,10 +409,10 @@
         <v>2000.0</v>
       </c>
       <c r="B3" t="n" s="3">
-        <v>0.0</v>
+        <v>1003593.0</v>
       </c>
       <c r="C3" t="n" s="3">
-        <v>1819620.0</v>
+        <v>1782688.0</v>
       </c>
     </row>
     <row r="4">
@@ -420,10 +420,10 @@
         <v>3000.0</v>
       </c>
       <c r="B4" t="n" s="4">
-        <v>0.0</v>
+        <v>2255654.0</v>
       </c>
       <c r="C4" t="n" s="4">
-        <v>4086890.0</v>
+        <v>4077636.0</v>
       </c>
     </row>
     <row r="5">
@@ -431,10 +431,10 @@
         <v>4000.0</v>
       </c>
       <c r="B5" t="n" s="5">
-        <v>0.0</v>
+        <v>4002551.0</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>7140793.0</v>
+        <v>7107394.0</v>
       </c>
     </row>
     <row r="6">
@@ -442,10 +442,10 @@
         <v>5000.0</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>0.0</v>
+        <v>6246158.0</v>
       </c>
       <c r="C6" t="n" s="6">
-        <v>1.1236203E7</v>
+        <v>1.1094581E7</v>
       </c>
     </row>
     <row r="7">
@@ -453,10 +453,10 @@
         <v>6000.0</v>
       </c>
       <c r="B7" t="n" s="7">
-        <v>0.0</v>
+        <v>8998411.0</v>
       </c>
       <c r="C7" t="n" s="7">
-        <v>1.6486523E7</v>
+        <v>1.576367E7</v>
       </c>
     </row>
     <row r="8">
@@ -464,10 +464,10 @@
         <v>7000.0</v>
       </c>
       <c r="B8" t="n" s="8">
-        <v>0.0</v>
+        <v>1.226993E7</v>
       </c>
       <c r="C8" t="n" s="8">
-        <v>2.208804E7</v>
+        <v>2.1612353E7</v>
       </c>
     </row>
     <row r="9">
@@ -475,10 +475,10 @@
         <v>8000.0</v>
       </c>
       <c r="B9" t="n" s="9">
-        <v>0.0</v>
+        <v>1.6023725E7</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>2.8590528E7</v>
+        <v>2.8111146E7</v>
       </c>
     </row>
     <row r="10">
@@ -486,10 +486,10 @@
         <v>9000.0</v>
       </c>
       <c r="B10" t="n" s="10">
-        <v>0.0</v>
+        <v>2.0260468E7</v>
       </c>
       <c r="C10" t="n" s="10">
-        <v>3.6119871E7</v>
+        <v>3.5240291E7</v>
       </c>
     </row>
     <row r="11">
@@ -497,10 +497,10 @@
         <v>10000.0</v>
       </c>
       <c r="B11" t="n" s="11">
-        <v>0.0</v>
+        <v>2.5018073E7</v>
       </c>
       <c r="C11" t="n" s="11">
-        <v>4.4339094E7</v>
+        <v>4.3538819E7</v>
       </c>
     </row>
     <row r="12">
@@ -508,10 +508,10 @@
         <v>11000.0</v>
       </c>
       <c r="B12" t="n" s="12">
-        <v>0.0</v>
+        <v>3.0222063E7</v>
       </c>
       <c r="C12" t="n" s="12">
-        <v>5.3938225E7</v>
+        <v>5.3007276E7</v>
       </c>
     </row>
     <row r="13">
@@ -519,10 +519,10 @@
         <v>12000.0</v>
       </c>
       <c r="B13" t="n" s="13">
-        <v>0.0</v>
+        <v>3.6012208E7</v>
       </c>
       <c r="C13" t="n" s="13">
-        <v>6.3909962E7</v>
+        <v>6.2442496E7</v>
       </c>
     </row>
     <row r="14">
@@ -530,10 +530,10 @@
         <v>13000.0</v>
       </c>
       <c r="B14" t="n" s="14">
-        <v>0.0</v>
+        <v>4.2239015E7</v>
       </c>
       <c r="C14" t="n" s="14">
-        <v>7.5097926E7</v>
+        <v>7.3601961E7</v>
       </c>
     </row>
     <row r="15">
@@ -541,10 +541,10 @@
         <v>14000.0</v>
       </c>
       <c r="B15" t="n" s="15">
-        <v>0.0</v>
+        <v>4.8973565E7</v>
       </c>
       <c r="C15" t="n" s="15">
-        <v>8.6948427E7</v>
+        <v>8.6172707E7</v>
       </c>
     </row>
     <row r="16">
@@ -552,10 +552,10 @@
         <v>15000.0</v>
       </c>
       <c r="B16" t="n" s="16">
-        <v>0.0</v>
+        <v>5.6208277E7</v>
       </c>
       <c r="C16" t="n" s="16">
-        <v>9.9874937E7</v>
+        <v>9.8356119E7</v>
       </c>
     </row>
     <row r="17">
@@ -563,10 +563,10 @@
         <v>16000.0</v>
       </c>
       <c r="B17" t="n" s="17">
-        <v>0.0</v>
+        <v>6.4043158E7</v>
       </c>
       <c r="C17" t="n" s="17">
-        <v>1.13958316E8</v>
+        <v>1.11128785E8</v>
       </c>
     </row>
     <row r="18">
@@ -574,10 +574,10 @@
         <v>17000.0</v>
       </c>
       <c r="B18" t="n" s="18">
-        <v>0.0</v>
+        <v>7.2246481E7</v>
       </c>
       <c r="C18" t="n" s="18">
-        <v>1.28474172E8</v>
+        <v>1.26022208E8</v>
       </c>
     </row>
     <row r="19">
@@ -585,10 +585,10 @@
         <v>18000.0</v>
       </c>
       <c r="B19" t="n" s="19">
-        <v>0.0</v>
+        <v>8.0999775E7</v>
       </c>
       <c r="C19" t="n" s="19">
-        <v>1.44384879E8</v>
+        <v>1.41312817E8</v>
       </c>
     </row>
     <row r="20">
@@ -596,10 +596,10 @@
         <v>19000.0</v>
       </c>
       <c r="B20" t="n" s="20">
-        <v>0.0</v>
+        <v>9.0225541E7</v>
       </c>
       <c r="C20" t="n" s="20">
-        <v>1.60422709E8</v>
+        <v>1.56804226E8</v>
       </c>
     </row>
     <row r="21">
@@ -607,10 +607,10 @@
         <v>20000.0</v>
       </c>
       <c r="B21" t="n" s="21">
-        <v>0.0</v>
+        <v>9.9984571E7</v>
       </c>
       <c r="C21" t="n" s="21">
-        <v>1.77657437E8</v>
+        <v>1.74203609E8</v>
       </c>
     </row>
     <row r="22">
@@ -618,10 +618,10 @@
         <v>21000.0</v>
       </c>
       <c r="B22" t="n" s="22">
-        <v>0.0</v>
+        <v>1.1028946E8</v>
       </c>
       <c r="C22" t="n" s="22">
-        <v>1.95966788E8</v>
+        <v>1.92302282E8</v>
       </c>
     </row>
     <row r="23">
@@ -629,10 +629,10 @@
         <v>22000.0</v>
       </c>
       <c r="B23" t="n" s="23">
-        <v>0.0</v>
+        <v>1.20956741E8</v>
       </c>
       <c r="C23" t="n" s="23">
-        <v>2.1532991E8</v>
+        <v>2.10411953E8</v>
       </c>
     </row>
     <row r="24">
@@ -640,10 +640,10 @@
         <v>23000.0</v>
       </c>
       <c r="B24" t="n" s="24">
-        <v>0.0</v>
+        <v>1.32101619E8</v>
       </c>
       <c r="C24" t="n" s="24">
-        <v>2.35726909E8</v>
+        <v>2.27473285E8</v>
       </c>
     </row>
     <row r="25">
@@ -651,10 +651,10 @@
         <v>24000.0</v>
       </c>
       <c r="B25" t="n" s="25">
-        <v>0.0</v>
+        <v>1.44091178E8</v>
       </c>
       <c r="C25" t="n" s="25">
-        <v>2.57001674E8</v>
+        <v>2.51880984E8</v>
       </c>
     </row>
     <row r="26">
@@ -662,10 +662,10 @@
         <v>25000.0</v>
       </c>
       <c r="B26" t="n" s="26">
-        <v>0.0</v>
+        <v>1.56291361E8</v>
       </c>
       <c r="C26" t="n" s="26">
-        <v>2.78672402E8</v>
+        <v>2.73094577E8</v>
       </c>
     </row>
     <row r="27">
@@ -673,10 +673,10 @@
         <v>26000.0</v>
       </c>
       <c r="B27" t="n" s="27">
-        <v>0.0</v>
+        <v>1.69198551E8</v>
       </c>
       <c r="C27" t="n" s="27">
-        <v>3.01944905E8</v>
+        <v>2.94246289E8</v>
       </c>
     </row>
     <row r="28">
@@ -684,10 +684,10 @@
         <v>27000.0</v>
       </c>
       <c r="B28" t="n" s="28">
-        <v>0.0</v>
+        <v>1.82223143E8</v>
       </c>
       <c r="C28" t="n" s="28">
-        <v>3.24644353E8</v>
+        <v>3.18103043E8</v>
       </c>
     </row>
     <row r="29">
@@ -695,10 +695,10 @@
         <v>28000.0</v>
       </c>
       <c r="B29" t="n" s="29">
-        <v>0.0</v>
+        <v>1.96098204E8</v>
       </c>
       <c r="C29" t="n" s="29">
-        <v>3.48500961E8</v>
+        <v>3.41762631E8</v>
       </c>
     </row>
     <row r="30">
@@ -706,10 +706,10 @@
         <v>29000.0</v>
       </c>
       <c r="B30" t="n" s="30">
-        <v>0.0</v>
+        <v>2.10417647E8</v>
       </c>
       <c r="C30" t="n" s="30">
-        <v>3.74523802E8</v>
+        <v>3.66048123E8</v>
       </c>
     </row>
     <row r="31">
@@ -717,10 +717,10 @@
         <v>30000.0</v>
       </c>
       <c r="B31" t="n" s="31">
-        <v>0.0</v>
+        <v>2.2529124E8</v>
       </c>
       <c r="C31" t="n" s="31">
-        <v>4.00619267E8</v>
+        <v>3.91829383E8</v>
       </c>
     </row>
     <row r="32">
@@ -728,10 +728,10 @@
         <v>31000.0</v>
       </c>
       <c r="B32" t="n" s="32">
-        <v>0.0</v>
+        <v>2.40299213E8</v>
       </c>
       <c r="C32" t="n" s="32">
-        <v>4.27958064E8</v>
+        <v>4.19469505E8</v>
       </c>
     </row>
     <row r="33">
@@ -739,10 +739,10 @@
         <v>32000.0</v>
       </c>
       <c r="B33" t="n" s="33">
-        <v>0.0</v>
+        <v>2.56151588E8</v>
       </c>
       <c r="C33" t="n" s="33">
-        <v>4.55199202E8</v>
+        <v>4.46190977E8</v>
       </c>
     </row>
     <row r="34">
@@ -750,10 +750,10 @@
         <v>33000.0</v>
       </c>
       <c r="B34" t="n" s="34">
-        <v>0.0</v>
+        <v>2.72186802E8</v>
       </c>
       <c r="C34" t="n" s="34">
-        <v>4.84279368E8</v>
+        <v>4.74372755E8</v>
       </c>
     </row>
     <row r="35">
@@ -761,10 +761,10 @@
         <v>34000.0</v>
       </c>
       <c r="B35" t="n" s="35">
-        <v>0.0</v>
+        <v>2.88884207E8</v>
       </c>
       <c r="C35" t="n" s="35">
-        <v>5.15257432E8</v>
+        <v>5.0249408E8</v>
       </c>
     </row>
     <row r="36">
@@ -772,10 +772,10 @@
         <v>35000.0</v>
       </c>
       <c r="B36" t="n" s="36">
-        <v>0.0</v>
+        <v>3.06703506E8</v>
       </c>
       <c r="C36" t="n" s="36">
-        <v>5.45055969E8</v>
+        <v>5.32409922E8</v>
       </c>
     </row>
     <row r="37">
@@ -783,10 +783,10 @@
         <v>36000.0</v>
       </c>
       <c r="B37" t="n" s="37">
-        <v>0.0</v>
+        <v>3.23968637E8</v>
       </c>
       <c r="C37" t="n" s="37">
-        <v>5.78089306E8</v>
+        <v>5.60984995E8</v>
       </c>
     </row>
     <row r="38">
@@ -794,10 +794,10 @@
         <v>37000.0</v>
       </c>
       <c r="B38" t="n" s="38">
-        <v>0.0</v>
+        <v>3.41890893E8</v>
       </c>
       <c r="C38" t="n" s="38">
-        <v>6.07823225E8</v>
+        <v>5.90764442E8</v>
       </c>
     </row>
     <row r="39">
@@ -805,10 +805,10 @@
         <v>38000.0</v>
       </c>
       <c r="B39" t="n" s="39">
-        <v>0.0</v>
+        <v>3.61347963E8</v>
       </c>
       <c r="C39" t="n" s="39">
-        <v>6.42897382E8</v>
+        <v>6.28461309E8</v>
       </c>
     </row>
     <row r="40">
@@ -816,10 +816,10 @@
         <v>39000.0</v>
       </c>
       <c r="B40" t="n" s="40">
-        <v>0.0</v>
+        <v>3.80397598E8</v>
       </c>
       <c r="C40" t="n" s="40">
-        <v>6.78136493E8</v>
+        <v>6.61364272E8</v>
       </c>
     </row>
     <row r="41">
@@ -827,10 +827,10 @@
         <v>40000.0</v>
       </c>
       <c r="B41" t="n" s="41">
-        <v>0.0</v>
+        <v>3.9987561E8</v>
       </c>
       <c r="C41" t="n" s="41">
-        <v>7.11629336E8</v>
+        <v>6.94500135E8</v>
       </c>
     </row>
     <row r="42">
@@ -838,10 +838,10 @@
         <v>41000.0</v>
       </c>
       <c r="B42" t="n" s="42">
-        <v>0.0</v>
+        <v>4.20355652E8</v>
       </c>
       <c r="C42" t="n" s="42">
-        <v>7.49047835E8</v>
+        <v>7.30470567E8</v>
       </c>
     </row>
     <row r="43">
@@ -849,10 +849,10 @@
         <v>42000.0</v>
       </c>
       <c r="B43" t="n" s="43">
-        <v>0.0</v>
+        <v>4.41090503E8</v>
       </c>
       <c r="C43" t="n" s="43">
-        <v>7.86023371E8</v>
+        <v>7.65262131E8</v>
       </c>
     </row>
     <row r="44">
@@ -860,10 +860,10 @@
         <v>43000.0</v>
       </c>
       <c r="B44" t="n" s="44">
-        <v>0.0</v>
+        <v>4.62668697E8</v>
       </c>
       <c r="C44" t="n" s="44">
-        <v>8.2233584E8</v>
+        <v>8.03366141E8</v>
       </c>
     </row>
     <row r="45">
@@ -871,10 +871,10 @@
         <v>44000.0</v>
       </c>
       <c r="B45" t="n" s="45">
-        <v>0.0</v>
+        <v>4.84128793E8</v>
       </c>
       <c r="C45" t="n" s="45">
-        <v>8.6680465E8</v>
+        <v>8.30996811E8</v>
       </c>
     </row>
     <row r="46">
@@ -882,10 +882,10 @@
         <v>45000.0</v>
       </c>
       <c r="B46" t="n" s="46">
-        <v>0.0</v>
+        <v>5.06080649E8</v>
       </c>
       <c r="C46" t="n" s="46">
-        <v>9.02026322E8</v>
+        <v>8.63139613E8</v>
       </c>
     </row>
     <row r="47">
@@ -893,10 +893,10 @@
         <v>46000.0</v>
       </c>
       <c r="B47" t="n" s="47">
-        <v>0.0</v>
+        <v>5.28931551E8</v>
       </c>
       <c r="C47" t="n" s="47">
-        <v>9.4356092E8</v>
+        <v>9.02397807E8</v>
       </c>
     </row>
     <row r="48">
@@ -904,10 +904,10 @@
         <v>47000.0</v>
       </c>
       <c r="B48" t="n" s="48">
-        <v>0.0</v>
+        <v>5.52936897E8</v>
       </c>
       <c r="C48" t="n" s="48">
-        <v>9.86155712E8</v>
+        <v>9.42953781E8</v>
       </c>
     </row>
     <row r="49">
@@ -915,10 +915,10 @@
         <v>48000.0</v>
       </c>
       <c r="B49" t="n" s="49">
-        <v>0.0</v>
+        <v>5.75691892E8</v>
       </c>
       <c r="C49" t="n" s="49">
-        <v>1.030690176E9</v>
+        <v>9.82592004E8</v>
       </c>
     </row>
     <row r="50">
@@ -926,10 +926,10 @@
         <v>49000.0</v>
       </c>
       <c r="B50" t="n" s="50">
-        <v>0.0</v>
+        <v>6.00338646E8</v>
       </c>
       <c r="C50" t="n" s="50">
-        <v>1.073799648E9</v>
+        <v>1.024352685E9</v>
       </c>
     </row>
     <row r="51">
@@ -937,10 +937,10 @@
         <v>50000.0</v>
       </c>
       <c r="B51" t="n" s="51">
-        <v>0.0</v>
+        <v>6.24902744E8</v>
       </c>
       <c r="C51" t="n" s="51">
-        <v>1.116994968E9</v>
+        <v>1.066160511E9</v>
       </c>
     </row>
     <row r="52">
@@ -948,10 +948,10 @@
         <v>51000.0</v>
       </c>
       <c r="B52" t="n" s="52">
-        <v>0.0</v>
+        <v>6.5071963E8</v>
       </c>
       <c r="C52" t="n" s="52">
-        <v>1.165511026E9</v>
+        <v>1.109685106E9</v>
       </c>
     </row>
     <row r="53">
@@ -959,10 +959,10 @@
         <v>52000.0</v>
       </c>
       <c r="B53" t="n" s="53">
-        <v>0.0</v>
+        <v>6.76422807E8</v>
       </c>
       <c r="C53" t="n" s="53">
-        <v>1.21208766E9</v>
+        <v>1.153831765E9</v>
       </c>
     </row>
     <row r="54">
@@ -970,10 +970,10 @@
         <v>53000.0</v>
       </c>
       <c r="B54" t="n" s="54">
-        <v>0.0</v>
+        <v>7.02176007E8</v>
       </c>
       <c r="C54" t="n" s="54">
-        <v>1.259405682E9</v>
+        <v>1.198926462E9</v>
       </c>
     </row>
     <row r="55">
@@ -981,10 +981,10 @@
         <v>54000.0</v>
       </c>
       <c r="B55" t="n" s="55">
-        <v>0.0</v>
+        <v>7.28990471E8</v>
       </c>
       <c r="C55" t="n" s="55">
-        <v>1.307216796E9</v>
+        <v>1.24509852E9</v>
       </c>
     </row>
     <row r="56">
@@ -992,10 +992,10 @@
         <v>55000.0</v>
       </c>
       <c r="B56" t="n" s="56">
-        <v>0.0</v>
+        <v>7.56900881E8</v>
       </c>
       <c r="C56" t="n" s="56">
-        <v>1.355035882E9</v>
+        <v>1.290884783E9</v>
       </c>
     </row>
     <row r="57">
@@ -1003,10 +1003,10 @@
         <v>56000.0</v>
       </c>
       <c r="B57" t="n" s="57">
-        <v>0.0</v>
+        <v>7.84706785E8</v>
       </c>
       <c r="C57" t="n" s="57">
-        <v>1.402648163E9</v>
+        <v>1.339577889E9</v>
       </c>
     </row>
     <row r="58">
@@ -1014,10 +1014,10 @@
         <v>57000.0</v>
       </c>
       <c r="B58" t="n" s="58">
-        <v>0.0</v>
+        <v>8.12312953E8</v>
       </c>
       <c r="C58" t="n" s="58">
-        <v>1.454832858E9</v>
+        <v>1.386343785E9</v>
       </c>
     </row>
     <row r="59">
@@ -1025,10 +1025,10 @@
         <v>58000.0</v>
       </c>
       <c r="B59" t="n" s="59">
-        <v>0.0</v>
+        <v>8.40754819E8</v>
       </c>
       <c r="C59" t="n" s="59">
-        <v>1.50588287E9</v>
+        <v>1.435025148E9</v>
       </c>
     </row>
     <row r="60">
@@ -1036,10 +1036,10 @@
         <v>59000.0</v>
       </c>
       <c r="B60" t="n" s="60">
-        <v>0.0</v>
+        <v>8.70438528E8</v>
       </c>
       <c r="C60" t="n" s="60">
-        <v>1.55536928E9</v>
+        <v>1.484677034E9</v>
       </c>
     </row>
     <row r="61">
@@ -1047,10 +1047,10 @@
         <v>60000.0</v>
       </c>
       <c r="B61" t="n" s="61">
-        <v>0.0</v>
+        <v>8.99846055E8</v>
       </c>
       <c r="C61" t="n" s="61">
-        <v>1.610072867E9</v>
+        <v>1.535214709E9</v>
       </c>
     </row>
     <row r="62">
@@ -1058,10 +1058,10 @@
         <v>61000.0</v>
       </c>
       <c r="B62" t="n" s="62">
-        <v>0.0</v>
+        <v>9.3015344E8</v>
       </c>
       <c r="C62" t="n" s="62">
-        <v>1.66542848E9</v>
+        <v>1.587653969E9</v>
       </c>
     </row>
     <row r="63">
@@ -1069,10 +1069,10 @@
         <v>62000.0</v>
       </c>
       <c r="B63" t="n" s="63">
-        <v>0.0</v>
+        <v>9.61206936E8</v>
       </c>
       <c r="C63" t="n" s="63">
-        <v>1.717646446E9</v>
+        <v>1.639596509E9</v>
       </c>
     </row>
     <row r="64">
@@ -1080,10 +1080,10 @@
         <v>63000.0</v>
       </c>
       <c r="B64" t="n" s="64">
-        <v>0.0</v>
+        <v>9.92000301E8</v>
       </c>
       <c r="C64" t="n" s="64">
-        <v>1.777507014E9</v>
+        <v>1.692447016E9</v>
       </c>
     </row>
     <row r="65">
@@ -1091,10 +1091,10 @@
         <v>64000.0</v>
       </c>
       <c r="B65" t="n" s="65">
-        <v>0.0</v>
+        <v>1.023805767E9</v>
       </c>
       <c r="C65" t="n" s="65">
-        <v>1.833337877E9</v>
+        <v>1.745980417E9</v>
       </c>
     </row>
     <row r="66">
@@ -1102,10 +1102,10 @@
         <v>65000.0</v>
       </c>
       <c r="B66" t="n" s="66">
-        <v>0.0</v>
+        <v>1.056496482E9</v>
       </c>
       <c r="C66" t="n" s="66">
-        <v>1.896586183E9</v>
+        <v>1.800771297E9</v>
       </c>
     </row>
     <row r="67">
@@ -1113,10 +1113,10 @@
         <v>66000.0</v>
       </c>
       <c r="B67" t="n" s="67">
-        <v>0.0</v>
+        <v>1.088085636E9</v>
       </c>
       <c r="C67" t="n" s="67">
-        <v>1.950764921E9</v>
+        <v>1.855797557E9</v>
       </c>
     </row>
     <row r="68">
@@ -1124,10 +1124,10 @@
         <v>67000.0</v>
       </c>
       <c r="B68" t="n" s="68">
-        <v>0.0</v>
+        <v>1.122047444E9</v>
       </c>
       <c r="C68" t="n" s="68">
-        <v>2.008275579E9</v>
+        <v>1.913924446E9</v>
       </c>
     </row>
     <row r="69">
@@ -1135,10 +1135,10 @@
         <v>68000.0</v>
       </c>
       <c r="B69" t="n" s="69">
-        <v>0.0</v>
+        <v>1.156811322E9</v>
       </c>
       <c r="C69" t="n" s="69">
-        <v>2.072182222E9</v>
+        <v>1.972220061E9</v>
       </c>
     </row>
     <row r="70">
@@ -1146,10 +1146,10 @@
         <v>69000.0</v>
       </c>
       <c r="B70" t="n" s="70">
-        <v>0.0</v>
+        <v>1.190166004E9</v>
       </c>
       <c r="C70" t="n" s="70">
-        <v>2.121760783E9</v>
+        <v>2.029359055E9</v>
       </c>
     </row>
     <row r="71">
@@ -1157,10 +1157,10 @@
         <v>70000.0</v>
       </c>
       <c r="B71" t="n" s="71">
-        <v>0.0</v>
+        <v>1.224092269E9</v>
       </c>
       <c r="C71" t="n" s="71">
-        <v>2.19242164E9</v>
+        <v>2.086829539E9</v>
       </c>
     </row>
     <row r="72">
@@ -1168,10 +1168,10 @@
         <v>71000.0</v>
       </c>
       <c r="B72" t="n" s="72">
-        <v>0.0</v>
+        <v>1.260588338E9</v>
       </c>
       <c r="C72" t="n" s="72">
-        <v>2.25980109E9</v>
+        <v>2.149250961E9</v>
       </c>
     </row>
     <row r="73">
@@ -1179,10 +1179,10 @@
         <v>72000.0</v>
       </c>
       <c r="B73" t="n" s="73">
-        <v>0.0</v>
+        <v>1.295866967E9</v>
       </c>
       <c r="C73" t="n" s="73">
-        <v>2.324647953E9</v>
+        <v>2.209787418E9</v>
       </c>
     </row>
     <row r="74">
@@ -1190,10 +1190,10 @@
         <v>73000.0</v>
       </c>
       <c r="B74" t="n" s="74">
-        <v>0.0</v>
+        <v>1.331713664E9</v>
       </c>
       <c r="C74" t="n" s="74">
-        <v>2.385031225E9</v>
+        <v>2.273871443E9</v>
       </c>
     </row>
     <row r="75">
@@ -1201,10 +1201,10 @@
         <v>74000.0</v>
       </c>
       <c r="B75" t="n" s="75">
-        <v>0.0</v>
+        <v>1.369252716E9</v>
       </c>
       <c r="C75" t="n" s="75">
-        <v>2.454130609E9</v>
+        <v>2.333709003E9</v>
       </c>
     </row>
     <row r="76">
@@ -1212,10 +1212,10 @@
         <v>75000.0</v>
       </c>
       <c r="B76" t="n" s="76">
-        <v>0.0</v>
+        <v>1.406129277E9</v>
       </c>
       <c r="C76" t="n" s="76">
-        <v>2.522781411E9</v>
+        <v>2.398702629E9</v>
       </c>
     </row>
     <row r="77">
@@ -1223,10 +1223,10 @@
         <v>76000.0</v>
       </c>
       <c r="B77" t="n" s="77">
-        <v>0.0</v>
+        <v>1.444126793E9</v>
       </c>
       <c r="C77" t="n" s="77">
-        <v>2.581146597E9</v>
+        <v>2.463910201E9</v>
       </c>
     </row>
     <row r="78">
@@ -1234,10 +1234,10 @@
         <v>77000.0</v>
       </c>
       <c r="B78" t="n" s="78">
-        <v>0.0</v>
+        <v>1.483152271E9</v>
       </c>
       <c r="C78" t="n" s="78">
-        <v>2.651506505E9</v>
+        <v>2.52936901E9</v>
       </c>
     </row>
     <row r="79">
@@ -1245,10 +1245,10 @@
         <v>78000.0</v>
       </c>
       <c r="B79" t="n" s="79">
-        <v>0.0</v>
+        <v>1.520780002E9</v>
       </c>
       <c r="C79" t="n" s="79">
-        <v>2.724689983E9</v>
+        <v>2.59396332E9</v>
       </c>
     </row>
     <row r="80">
@@ -1256,10 +1256,10 @@
         <v>79000.0</v>
       </c>
       <c r="B80" t="n" s="80">
-        <v>0.0</v>
+        <v>1.559792607E9</v>
       </c>
       <c r="C80" t="n" s="80">
-        <v>2.800877928E9</v>
+        <v>2.660482691E9</v>
       </c>
     </row>
     <row r="81">
@@ -1267,10 +1267,10 @@
         <v>80000.0</v>
       </c>
       <c r="B81" t="n" s="81">
-        <v>0.0</v>
+        <v>1.59942358E9</v>
       </c>
       <c r="C81" t="n" s="81">
-        <v>2.879555343E9</v>
+        <v>2.726735362E9</v>
       </c>
     </row>
     <row r="82">
@@ -1278,10 +1278,10 @@
         <v>81000.0</v>
       </c>
       <c r="B82" t="n" s="82">
-        <v>0.0</v>
+        <v>1.640193311E9</v>
       </c>
       <c r="C82" t="n" s="82">
-        <v>2.908875576E9</v>
+        <v>2.797815129E9</v>
       </c>
     </row>
     <row r="83">
@@ -1289,10 +1289,10 @@
         <v>82000.0</v>
       </c>
       <c r="B83" t="n" s="83">
-        <v>0.0</v>
+        <v>1.680034237E9</v>
       </c>
       <c r="C83" t="n" s="83">
-        <v>2.973949678E9</v>
+        <v>2.865976252E9</v>
       </c>
     </row>
     <row r="84">
@@ -1300,10 +1300,10 @@
         <v>83000.0</v>
       </c>
       <c r="B84" t="n" s="84">
-        <v>0.0</v>
+        <v>1.723123944E9</v>
       </c>
       <c r="C84" t="n" s="84">
-        <v>3.054517823E9</v>
+        <v>2.937501925E9</v>
       </c>
     </row>
     <row r="85">
@@ -1311,10 +1311,10 @@
         <v>84000.0</v>
       </c>
       <c r="B85" t="n" s="85">
-        <v>0.0</v>
+        <v>1.764294091E9</v>
       </c>
       <c r="C85" t="n" s="85">
-        <v>3.160689367E9</v>
+        <v>3.008133632E9</v>
       </c>
     </row>
     <row r="86">
@@ -1322,10 +1322,10 @@
         <v>85000.0</v>
       </c>
       <c r="B86" t="n" s="86">
-        <v>0.0</v>
+        <v>1.806096468E9</v>
       </c>
       <c r="C86" t="n" s="86">
-        <v>3.286591431E9</v>
+        <v>3.078032103E9</v>
       </c>
     </row>
     <row r="87">
@@ -1333,10 +1333,10 @@
         <v>86000.0</v>
       </c>
       <c r="B87" t="n" s="87">
-        <v>0.0</v>
+        <v>1.849373479E9</v>
       </c>
       <c r="C87" t="n" s="87">
-        <v>3.28645471E9</v>
+        <v>3.152725145E9</v>
       </c>
     </row>
     <row r="88">
@@ -1344,10 +1344,10 @@
         <v>87000.0</v>
       </c>
       <c r="B88" t="n" s="88">
-        <v>0.0</v>
+        <v>1.891844672E9</v>
       </c>
       <c r="C88" t="n" s="88">
-        <v>3.374932082E9</v>
+        <v>3.224970352E9</v>
       </c>
     </row>
     <row r="89">
@@ -1355,10 +1355,10 @@
         <v>88000.0</v>
       </c>
       <c r="B89" t="n" s="89">
-        <v>0.0</v>
+        <v>1.935630918E9</v>
       </c>
       <c r="C89" t="n" s="89">
-        <v>3.413390787E9</v>
+        <v>3.300921352E9</v>
       </c>
     </row>
     <row r="90">
@@ -1366,10 +1366,10 @@
         <v>89000.0</v>
       </c>
       <c r="B90" t="n" s="90">
-        <v>0.0</v>
+        <v>1.980006919E9</v>
       </c>
       <c r="C90" t="n" s="90">
-        <v>3.496240965E9</v>
+        <v>3.37760753E9</v>
       </c>
     </row>
     <row r="91">
@@ -1377,10 +1377,10 @@
         <v>90000.0</v>
       </c>
       <c r="B91" t="n" s="91">
-        <v>0.0</v>
+        <v>2.024927528E9</v>
       </c>
       <c r="C91" t="n" s="91">
-        <v>3.574170637E9</v>
+        <v>3.451586382E9</v>
       </c>
     </row>
     <row r="92">
@@ -1388,10 +1388,10 @@
         <v>91000.0</v>
       </c>
       <c r="B92" t="n" s="92">
-        <v>0.0</v>
+        <v>2.07013378E9</v>
       </c>
       <c r="C92" t="n" s="92">
-        <v>3.654383112E9</v>
+        <v>3.528114294E9</v>
       </c>
     </row>
     <row r="93">
@@ -1399,10 +1399,10 @@
         <v>92000.0</v>
       </c>
       <c r="B93" t="n" s="93">
-        <v>0.0</v>
+        <v>2.115103978E9</v>
       </c>
       <c r="C93" t="n" s="93">
-        <v>3.732204674E9</v>
+        <v>3.605654255E9</v>
       </c>
     </row>
     <row r="94">
@@ -1410,10 +1410,10 @@
         <v>93000.0</v>
       </c>
       <c r="B94" t="n" s="94">
-        <v>0.0</v>
+        <v>2.16194566E9</v>
       </c>
       <c r="C94" t="n" s="94">
-        <v>3.818977977E9</v>
+        <v>3.687141563E9</v>
       </c>
     </row>
     <row r="95">
@@ -1421,10 +1421,10 @@
         <v>94000.0</v>
       </c>
       <c r="B95" t="n" s="95">
-        <v>0.0</v>
+        <v>2.208588182E9</v>
       </c>
       <c r="C95" t="n" s="95">
-        <v>3.811942814E9</v>
+        <v>3.764647295E9</v>
       </c>
     </row>
     <row r="96">
@@ -1432,10 +1432,10 @@
         <v>95000.0</v>
       </c>
       <c r="B96" t="n" s="96">
-        <v>0.0</v>
+        <v>2.255022149E9</v>
       </c>
       <c r="C96" t="n" s="96">
-        <v>3.972444297E9</v>
+        <v>3.844976955E9</v>
       </c>
     </row>
     <row r="97">
@@ -1443,10 +1443,10 @@
         <v>96000.0</v>
       </c>
       <c r="B97" t="n" s="97">
-        <v>0.0</v>
+        <v>2.304058704E9</v>
       </c>
       <c r="C97" t="n" s="97">
-        <v>3.976730251E9</v>
+        <v>3.926944005E9</v>
       </c>
     </row>
     <row r="98">
@@ -1454,10 +1454,10 @@
         <v>97000.0</v>
       </c>
       <c r="B98" t="n" s="98">
-        <v>0.0</v>
+        <v>2.352987386E9</v>
       </c>
       <c r="C98" t="n" s="98">
-        <v>4.056565981E9</v>
+        <v>4.011530009E9</v>
       </c>
     </row>
     <row r="99">
@@ -1465,10 +1465,10 @@
         <v>98000.0</v>
       </c>
       <c r="B99" t="n" s="99">
-        <v>0.0</v>
+        <v>2.400495939E9</v>
       </c>
       <c r="C99" t="n" s="99">
-        <v>4.1273853E9</v>
+        <v>4.090189189E9</v>
       </c>
     </row>
     <row r="100">
@@ -1476,10 +1476,10 @@
         <v>99000.0</v>
       </c>
       <c r="B100" t="n" s="100">
-        <v>0.0</v>
+        <v>2.449798006E9</v>
       </c>
       <c r="C100" t="n" s="100">
-        <v>4.214887939E9</v>
+        <v>4.172962107E9</v>
       </c>
     </row>
     <row r="101">
@@ -1487,10 +1487,10 @@
         <v>100000.0</v>
       </c>
       <c r="B101" t="n" s="101">
-        <v>0.0</v>
+        <v>2.499446093E9</v>
       </c>
       <c r="C101" t="n" s="101">
-        <v>4.304978101E9</v>
+        <v>4.260845392E9</v>
       </c>
     </row>
   </sheetData>

--- a/Output Data/Insertion Sort on Randomly-Ordered Array Results.xlsx
+++ b/Output Data/Insertion Sort on Randomly-Ordered Array Results.xlsx
@@ -398,10 +398,10 @@
         <v>1000.0</v>
       </c>
       <c r="B2" t="n" s="2">
-        <v>250768.0</v>
+        <v>251179.0</v>
       </c>
       <c r="C2" t="n" s="2">
-        <v>453260.0</v>
+        <v>449856.0</v>
       </c>
     </row>
     <row r="3">
@@ -409,10 +409,10 @@
         <v>2000.0</v>
       </c>
       <c r="B3" t="n" s="3">
-        <v>1003593.0</v>
+        <v>1003568.0</v>
       </c>
       <c r="C3" t="n" s="3">
-        <v>1782688.0</v>
+        <v>1744370.0</v>
       </c>
     </row>
     <row r="4">
@@ -420,10 +420,10 @@
         <v>3000.0</v>
       </c>
       <c r="B4" t="n" s="4">
-        <v>2255654.0</v>
+        <v>2252898.0</v>
       </c>
       <c r="C4" t="n" s="4">
-        <v>4077636.0</v>
+        <v>3974563.0</v>
       </c>
     </row>
     <row r="5">
@@ -431,10 +431,10 @@
         <v>4000.0</v>
       </c>
       <c r="B5" t="n" s="5">
-        <v>4002551.0</v>
+        <v>4004428.0</v>
       </c>
       <c r="C5" t="n" s="5">
-        <v>7107394.0</v>
+        <v>7016501.0</v>
       </c>
     </row>
     <row r="6">
@@ -442,10 +442,10 @@
         <v>5000.0</v>
       </c>
       <c r="B6" t="n" s="6">
-        <v>6246158.0</v>
+        <v>6243588.0</v>
       </c>
       <c r="C6" t="n" s="6">
-        <v>1.1094581E7</v>
+        <v>1.0932817E7</v>
       </c>
     </row>
     <row r="7">
@@ -453,10 +453,10 @@
         <v>6000.0</v>
       </c>
       <c r="B7" t="n" s="7">
-        <v>8998411.0</v>
+        <v>8999270.0</v>
       </c>
       <c r="C7" t="n" s="7">
-        <v>1.576367E7</v>
+        <v>1.5575982E7</v>
       </c>
     </row>
     <row r="8">
@@ -464,10 +464,10 @@
         <v>7000.0</v>
       </c>
       <c r="B8" t="n" s="8">
-        <v>1.226993E7</v>
+        <v>1.2256299E7</v>
       </c>
       <c r="C8" t="n" s="8">
-        <v>2.1612353E7</v>
+        <v>2.1144339E7</v>
       </c>
     </row>
     <row r="9">
@@ -475,10 +475,10 @@
         <v>8000.0</v>
       </c>
       <c r="B9" t="n" s="9">
-        <v>1.6023725E7</v>
+        <v>1.6017206E7</v>
       </c>
       <c r="C9" t="n" s="9">
-        <v>2.8111146E7</v>
+        <v>2.7590967E7</v>
       </c>
     </row>
     <row r="10">
@@ -486,10 +486,10 @@
         <v>9000.0</v>
       </c>
       <c r="B10" t="n" s="10">
-        <v>2.0260468E7</v>
+        <v>2.0240609E7</v>
       </c>
       <c r="C10" t="n" s="10">
-        <v>3.5240291E7</v>
+        <v>3.4730657E7</v>
       </c>
     </row>
     <row r="11">
@@ -497,10 +497,10 @@
         <v>10000.0</v>
       </c>
       <c r="B11" t="n" s="11">
-        <v>2.5018073E7</v>
+        <v>2.502266E7</v>
       </c>
       <c r="C11" t="n" s="11">
-        <v>4.3538819E7</v>
+        <v>4.2967611E7</v>
       </c>
     </row>
     <row r="12">
@@ -508,10 +508,10 @@
         <v>11000.0</v>
       </c>
       <c r="B12" t="n" s="12">
-        <v>3.0222063E7</v>
+        <v>3.0216517E7</v>
       </c>
       <c r="C12" t="n" s="12">
-        <v>5.3007276E7</v>
+        <v>5.1959569E7</v>
       </c>
     </row>
     <row r="13">
@@ -519,10 +519,10 @@
         <v>12000.0</v>
       </c>
       <c r="B13" t="n" s="13">
-        <v>3.6012208E7</v>
+        <v>3.5993687E7</v>
       </c>
       <c r="C13" t="n" s="13">
-        <v>6.2442496E7</v>
+        <v>6.1860897E7</v>
       </c>
     </row>
     <row r="14">
@@ -530,10 +530,10 @@
         <v>13000.0</v>
       </c>
       <c r="B14" t="n" s="14">
-        <v>4.2239015E7</v>
+        <v>4.2227549E7</v>
       </c>
       <c r="C14" t="n" s="14">
-        <v>7.3601961E7</v>
+        <v>7.2109154E7</v>
       </c>
     </row>
     <row r="15">
@@ -541,10 +541,10 @@
         <v>14000.0</v>
       </c>
       <c r="B15" t="n" s="15">
-        <v>4.8973565E7</v>
+        <v>4.905334E7</v>
       </c>
       <c r="C15" t="n" s="15">
-        <v>8.6172707E7</v>
+        <v>8.4211602E7</v>
       </c>
     </row>
     <row r="16">
@@ -552,10 +552,10 @@
         <v>15000.0</v>
       </c>
       <c r="B16" t="n" s="16">
-        <v>5.6208277E7</v>
+        <v>5.6250324E7</v>
       </c>
       <c r="C16" t="n" s="16">
-        <v>9.8356119E7</v>
+        <v>9.6653085E7</v>
       </c>
     </row>
     <row r="17">
@@ -563,10 +563,10 @@
         <v>16000.0</v>
       </c>
       <c r="B17" t="n" s="17">
-        <v>6.4043158E7</v>
+        <v>6.4039105E7</v>
       </c>
       <c r="C17" t="n" s="17">
-        <v>1.11128785E8</v>
+        <v>1.09816318E8</v>
       </c>
     </row>
     <row r="18">
@@ -574,10 +574,10 @@
         <v>17000.0</v>
       </c>
       <c r="B18" t="n" s="18">
-        <v>7.2246481E7</v>
+        <v>7.2329656E7</v>
       </c>
       <c r="C18" t="n" s="18">
-        <v>1.26022208E8</v>
+        <v>1.24093929E8</v>
       </c>
     </row>
     <row r="19">
@@ -585,10 +585,10 @@
         <v>18000.0</v>
       </c>
       <c r="B19" t="n" s="19">
-        <v>8.0999775E7</v>
+        <v>8.0993674E7</v>
       </c>
       <c r="C19" t="n" s="19">
-        <v>1.41312817E8</v>
+        <v>1.39183533E8</v>
       </c>
     </row>
     <row r="20">
@@ -596,10 +596,10 @@
         <v>19000.0</v>
       </c>
       <c r="B20" t="n" s="20">
-        <v>9.0225541E7</v>
+        <v>9.0301392E7</v>
       </c>
       <c r="C20" t="n" s="20">
-        <v>1.56804226E8</v>
+        <v>1.55098216E8</v>
       </c>
     </row>
     <row r="21">
@@ -607,10 +607,10 @@
         <v>20000.0</v>
       </c>
       <c r="B21" t="n" s="21">
-        <v>9.9984571E7</v>
+        <v>1.00052647E8</v>
       </c>
       <c r="C21" t="n" s="21">
-        <v>1.74203609E8</v>
+        <v>1.71638932E8</v>
       </c>
     </row>
     <row r="22">
@@ -618,10 +618,10 @@
         <v>21000.0</v>
       </c>
       <c r="B22" t="n" s="22">
-        <v>1.1028946E8</v>
+        <v>1.10136402E8</v>
       </c>
       <c r="C22" t="n" s="22">
-        <v>1.92302282E8</v>
+        <v>1.89588054E8</v>
       </c>
     </row>
     <row r="23">
@@ -629,10 +629,10 @@
         <v>22000.0</v>
       </c>
       <c r="B23" t="n" s="23">
-        <v>1.20956741E8</v>
+        <v>1.21034186E8</v>
       </c>
       <c r="C23" t="n" s="23">
-        <v>2.10411953E8</v>
+        <v>2.07004578E8</v>
       </c>
     </row>
     <row r="24">
@@ -640,10 +640,10 @@
         <v>23000.0</v>
       </c>
       <c r="B24" t="n" s="24">
-        <v>1.32101619E8</v>
+        <v>1.32366466E8</v>
       </c>
       <c r="C24" t="n" s="24">
-        <v>2.27473285E8</v>
+        <v>2.27576999E8</v>
       </c>
     </row>
     <row r="25">
@@ -651,10 +651,10 @@
         <v>24000.0</v>
       </c>
       <c r="B25" t="n" s="25">
-        <v>1.44091178E8</v>
+        <v>1.43930178E8</v>
       </c>
       <c r="C25" t="n" s="25">
-        <v>2.51880984E8</v>
+        <v>2.47049105E8</v>
       </c>
     </row>
     <row r="26">
@@ -662,10 +662,10 @@
         <v>25000.0</v>
       </c>
       <c r="B26" t="n" s="26">
-        <v>1.56291361E8</v>
+        <v>1.56344897E8</v>
       </c>
       <c r="C26" t="n" s="26">
-        <v>2.73094577E8</v>
+        <v>2.70499494E8</v>
       </c>
     </row>
     <row r="27">
@@ -673,10 +673,10 @@
         <v>26000.0</v>
       </c>
       <c r="B27" t="n" s="27">
-        <v>1.69198551E8</v>
+        <v>1.6870336E8</v>
       </c>
       <c r="C27" t="n" s="27">
-        <v>2.94246289E8</v>
+        <v>2.91178042E8</v>
       </c>
     </row>
     <row r="28">
@@ -684,10 +684,10 @@
         <v>27000.0</v>
       </c>
       <c r="B28" t="n" s="28">
-        <v>1.82223143E8</v>
+        <v>1.82061479E8</v>
       </c>
       <c r="C28" t="n" s="28">
-        <v>3.18103043E8</v>
+        <v>3.1407226E8</v>
       </c>
     </row>
     <row r="29">
@@ -695,10 +695,10 @@
         <v>28000.0</v>
       </c>
       <c r="B29" t="n" s="29">
-        <v>1.96098204E8</v>
+        <v>1.96017471E8</v>
       </c>
       <c r="C29" t="n" s="29">
-        <v>3.41762631E8</v>
+        <v>3.37040154E8</v>
       </c>
     </row>
     <row r="30">
@@ -706,10 +706,10 @@
         <v>29000.0</v>
       </c>
       <c r="B30" t="n" s="30">
-        <v>2.10417647E8</v>
+        <v>2.10191736E8</v>
       </c>
       <c r="C30" t="n" s="30">
-        <v>3.66048123E8</v>
+        <v>3.61553782E8</v>
       </c>
     </row>
     <row r="31">
@@ -717,10 +717,10 @@
         <v>30000.0</v>
       </c>
       <c r="B31" t="n" s="31">
-        <v>2.2529124E8</v>
+        <v>2.25017889E8</v>
       </c>
       <c r="C31" t="n" s="31">
-        <v>3.91829383E8</v>
+        <v>3.86967543E8</v>
       </c>
     </row>
     <row r="32">
@@ -728,10 +728,10 @@
         <v>31000.0</v>
       </c>
       <c r="B32" t="n" s="32">
-        <v>2.40299213E8</v>
+        <v>2.40418522E8</v>
       </c>
       <c r="C32" t="n" s="32">
-        <v>4.19469505E8</v>
+        <v>4.13063966E8</v>
       </c>
     </row>
     <row r="33">
@@ -739,10 +739,10 @@
         <v>32000.0</v>
       </c>
       <c r="B33" t="n" s="33">
-        <v>2.56151588E8</v>
+        <v>2.55867859E8</v>
       </c>
       <c r="C33" t="n" s="33">
-        <v>4.46190977E8</v>
+        <v>4.37522504E8</v>
       </c>
     </row>
     <row r="34">
@@ -750,10 +750,10 @@
         <v>33000.0</v>
       </c>
       <c r="B34" t="n" s="34">
-        <v>2.72186802E8</v>
+        <v>2.72398676E8</v>
       </c>
       <c r="C34" t="n" s="34">
-        <v>4.74372755E8</v>
+        <v>4.67909756E8</v>
       </c>
     </row>
     <row r="35">
@@ -761,10 +761,10 @@
         <v>34000.0</v>
       </c>
       <c r="B35" t="n" s="35">
-        <v>2.88884207E8</v>
+        <v>2.89295411E8</v>
       </c>
       <c r="C35" t="n" s="35">
-        <v>5.0249408E8</v>
+        <v>4.96366182E8</v>
       </c>
     </row>
     <row r="36">
@@ -772,10 +772,10 @@
         <v>35000.0</v>
       </c>
       <c r="B36" t="n" s="36">
-        <v>3.06703506E8</v>
+        <v>3.06474725E8</v>
       </c>
       <c r="C36" t="n" s="36">
-        <v>5.32409922E8</v>
+        <v>5.26581441E8</v>
       </c>
     </row>
     <row r="37">
@@ -783,10 +783,10 @@
         <v>36000.0</v>
       </c>
       <c r="B37" t="n" s="37">
-        <v>3.23968637E8</v>
+        <v>3.23974443E8</v>
       </c>
       <c r="C37" t="n" s="37">
-        <v>5.60984995E8</v>
+        <v>5.56175226E8</v>
       </c>
     </row>
     <row r="38">
@@ -794,10 +794,10 @@
         <v>37000.0</v>
       </c>
       <c r="B38" t="n" s="38">
-        <v>3.41890893E8</v>
+        <v>3.42456677E8</v>
       </c>
       <c r="C38" t="n" s="38">
-        <v>5.90764442E8</v>
+        <v>5.88828851E8</v>
       </c>
     </row>
     <row r="39">
@@ -805,10 +805,10 @@
         <v>38000.0</v>
       </c>
       <c r="B39" t="n" s="39">
-        <v>3.61347963E8</v>
+        <v>3.60621514E8</v>
       </c>
       <c r="C39" t="n" s="39">
-        <v>6.28461309E8</v>
+        <v>6.18854232E8</v>
       </c>
     </row>
     <row r="40">
@@ -816,10 +816,10 @@
         <v>39000.0</v>
       </c>
       <c r="B40" t="n" s="40">
-        <v>3.80397598E8</v>
+        <v>3.80310543E8</v>
       </c>
       <c r="C40" t="n" s="40">
-        <v>6.61364272E8</v>
+        <v>6.52432365E8</v>
       </c>
     </row>
     <row r="41">
@@ -827,10 +827,10 @@
         <v>40000.0</v>
       </c>
       <c r="B41" t="n" s="41">
-        <v>3.9987561E8</v>
+        <v>4.00135014E8</v>
       </c>
       <c r="C41" t="n" s="41">
-        <v>6.94500135E8</v>
+        <v>6.86040639E8</v>
       </c>
     </row>
     <row r="42">
@@ -838,10 +838,10 @@
         <v>41000.0</v>
       </c>
       <c r="B42" t="n" s="42">
-        <v>4.20355652E8</v>
+        <v>4.20219317E8</v>
       </c>
       <c r="C42" t="n" s="42">
-        <v>7.30470567E8</v>
+        <v>7.21202311E8</v>
       </c>
     </row>
     <row r="43">
@@ -849,10 +849,10 @@
         <v>42000.0</v>
       </c>
       <c r="B43" t="n" s="43">
-        <v>4.41090503E8</v>
+        <v>4.40897753E8</v>
       </c>
       <c r="C43" t="n" s="43">
-        <v>7.65262131E8</v>
+        <v>7.55781554E8</v>
       </c>
     </row>
     <row r="44">
@@ -860,10 +860,10 @@
         <v>43000.0</v>
       </c>
       <c r="B44" t="n" s="44">
-        <v>4.62668697E8</v>
+        <v>4.62590509E8</v>
       </c>
       <c r="C44" t="n" s="44">
-        <v>8.03366141E8</v>
+        <v>7.90679262E8</v>
       </c>
     </row>
     <row r="45">
@@ -871,10 +871,10 @@
         <v>44000.0</v>
       </c>
       <c r="B45" t="n" s="45">
-        <v>4.84128793E8</v>
+        <v>4.83783006E8</v>
       </c>
       <c r="C45" t="n" s="45">
-        <v>8.30996811E8</v>
+        <v>8.27856915E8</v>
       </c>
     </row>
     <row r="46">
@@ -882,10 +882,10 @@
         <v>45000.0</v>
       </c>
       <c r="B46" t="n" s="46">
-        <v>5.06080649E8</v>
+        <v>5.06351677E8</v>
       </c>
       <c r="C46" t="n" s="46">
-        <v>8.63139613E8</v>
+        <v>8.65653767E8</v>
       </c>
     </row>
     <row r="47">
@@ -893,10 +893,10 @@
         <v>46000.0</v>
       </c>
       <c r="B47" t="n" s="47">
-        <v>5.28931551E8</v>
+        <v>5.28998039E8</v>
       </c>
       <c r="C47" t="n" s="47">
-        <v>9.02397807E8</v>
+        <v>9.0123513E8</v>
       </c>
     </row>
     <row r="48">
@@ -904,10 +904,10 @@
         <v>47000.0</v>
       </c>
       <c r="B48" t="n" s="48">
-        <v>5.52936897E8</v>
+        <v>5.52273848E8</v>
       </c>
       <c r="C48" t="n" s="48">
-        <v>9.42953781E8</v>
+        <v>9.45263816E8</v>
       </c>
     </row>
     <row r="49">
@@ -915,10 +915,10 @@
         <v>48000.0</v>
       </c>
       <c r="B49" t="n" s="49">
-        <v>5.75691892E8</v>
+        <v>5.76119261E8</v>
       </c>
       <c r="C49" t="n" s="49">
-        <v>9.82592004E8</v>
+        <v>9.84474053E8</v>
       </c>
     </row>
     <row r="50">
@@ -926,10 +926,10 @@
         <v>49000.0</v>
       </c>
       <c r="B50" t="n" s="50">
-        <v>6.00338646E8</v>
+        <v>6.0022854E8</v>
       </c>
       <c r="C50" t="n" s="50">
-        <v>1.024352685E9</v>
+        <v>1.02536706E9</v>
       </c>
     </row>
     <row r="51">
@@ -937,10 +937,10 @@
         <v>50000.0</v>
       </c>
       <c r="B51" t="n" s="51">
-        <v>6.24902744E8</v>
+        <v>6.24993951E8</v>
       </c>
       <c r="C51" t="n" s="51">
-        <v>1.066160511E9</v>
+        <v>1.067030613E9</v>
       </c>
     </row>
     <row r="52">
@@ -948,10 +948,10 @@
         <v>51000.0</v>
       </c>
       <c r="B52" t="n" s="52">
-        <v>6.5071963E8</v>
+        <v>6.50321403E8</v>
       </c>
       <c r="C52" t="n" s="52">
-        <v>1.109685106E9</v>
+        <v>1.112376702E9</v>
       </c>
     </row>
     <row r="53">
@@ -959,10 +959,10 @@
         <v>52000.0</v>
       </c>
       <c r="B53" t="n" s="53">
-        <v>6.76422807E8</v>
+        <v>6.75756284E8</v>
       </c>
       <c r="C53" t="n" s="53">
-        <v>1.153831765E9</v>
+        <v>1.156668276E9</v>
       </c>
     </row>
     <row r="54">
@@ -970,10 +970,10 @@
         <v>53000.0</v>
       </c>
       <c r="B54" t="n" s="54">
-        <v>7.02176007E8</v>
+        <v>7.02599286E8</v>
       </c>
       <c r="C54" t="n" s="54">
-        <v>1.198926462E9</v>
+        <v>1.200735776E9</v>
       </c>
     </row>
     <row r="55">
@@ -981,10 +981,10 @@
         <v>54000.0</v>
       </c>
       <c r="B55" t="n" s="55">
-        <v>7.28990471E8</v>
+        <v>7.29564952E8</v>
       </c>
       <c r="C55" t="n" s="55">
-        <v>1.24509852E9</v>
+        <v>1.248230718E9</v>
       </c>
     </row>
     <row r="56">
@@ -992,10 +992,10 @@
         <v>55000.0</v>
       </c>
       <c r="B56" t="n" s="56">
-        <v>7.56900881E8</v>
+        <v>7.56149693E8</v>
       </c>
       <c r="C56" t="n" s="56">
-        <v>1.290884783E9</v>
+        <v>1.293431841E9</v>
       </c>
     </row>
     <row r="57">
@@ -1003,10 +1003,10 @@
         <v>56000.0</v>
       </c>
       <c r="B57" t="n" s="57">
-        <v>7.84706785E8</v>
+        <v>7.84353664E8</v>
       </c>
       <c r="C57" t="n" s="57">
-        <v>1.339577889E9</v>
+        <v>1.338877077E9</v>
       </c>
     </row>
     <row r="58">
@@ -1014,10 +1014,10 @@
         <v>57000.0</v>
       </c>
       <c r="B58" t="n" s="58">
-        <v>8.12312953E8</v>
+        <v>8.12256896E8</v>
       </c>
       <c r="C58" t="n" s="58">
-        <v>1.386343785E9</v>
+        <v>1.37347707E9</v>
       </c>
     </row>
     <row r="59">
@@ -1025,10 +1025,10 @@
         <v>58000.0</v>
       </c>
       <c r="B59" t="n" s="59">
-        <v>8.40754819E8</v>
+        <v>8.40805008E8</v>
       </c>
       <c r="C59" t="n" s="59">
-        <v>1.435025148E9</v>
+        <v>1.417186283E9</v>
       </c>
     </row>
     <row r="60">
@@ -1036,10 +1036,10 @@
         <v>59000.0</v>
       </c>
       <c r="B60" t="n" s="60">
-        <v>8.70438528E8</v>
+        <v>8.70335332E8</v>
       </c>
       <c r="C60" t="n" s="60">
-        <v>1.484677034E9</v>
+        <v>1.469144039E9</v>
       </c>
     </row>
     <row r="61">
@@ -1047,10 +1047,10 @@
         <v>60000.0</v>
       </c>
       <c r="B61" t="n" s="61">
-        <v>8.99846055E8</v>
+        <v>9.00039089E8</v>
       </c>
       <c r="C61" t="n" s="61">
-        <v>1.535214709E9</v>
+        <v>1.513850274E9</v>
       </c>
     </row>
     <row r="62">
@@ -1058,10 +1058,10 @@
         <v>61000.0</v>
       </c>
       <c r="B62" t="n" s="62">
-        <v>9.3015344E8</v>
+        <v>9.31016241E8</v>
       </c>
       <c r="C62" t="n" s="62">
-        <v>1.587653969E9</v>
+        <v>1.566835235E9</v>
       </c>
     </row>
     <row r="63">
@@ -1069,10 +1069,10 @@
         <v>62000.0</v>
       </c>
       <c r="B63" t="n" s="63">
-        <v>9.61206936E8</v>
+        <v>9.60281023E8</v>
       </c>
       <c r="C63" t="n" s="63">
-        <v>1.639596509E9</v>
+        <v>1.616404807E9</v>
       </c>
     </row>
     <row r="64">
@@ -1080,10 +1080,10 @@
         <v>63000.0</v>
       </c>
       <c r="B64" t="n" s="64">
-        <v>9.92000301E8</v>
+        <v>9.92978536E8</v>
       </c>
       <c r="C64" t="n" s="64">
-        <v>1.692447016E9</v>
+        <v>1.670781009E9</v>
       </c>
     </row>
     <row r="65">
@@ -1091,10 +1091,10 @@
         <v>64000.0</v>
       </c>
       <c r="B65" t="n" s="65">
-        <v>1.023805767E9</v>
+        <v>1.024573226E9</v>
       </c>
       <c r="C65" t="n" s="65">
-        <v>1.745980417E9</v>
+        <v>1.724136301E9</v>
       </c>
     </row>
     <row r="66">
@@ -1102,10 +1102,10 @@
         <v>65000.0</v>
       </c>
       <c r="B66" t="n" s="66">
-        <v>1.056496482E9</v>
+        <v>1.056736207E9</v>
       </c>
       <c r="C66" t="n" s="66">
-        <v>1.800771297E9</v>
+        <v>1.778324284E9</v>
       </c>
     </row>
     <row r="67">
@@ -1113,10 +1113,10 @@
         <v>66000.0</v>
       </c>
       <c r="B67" t="n" s="67">
-        <v>1.088085636E9</v>
+        <v>1.088961431E9</v>
       </c>
       <c r="C67" t="n" s="67">
-        <v>1.855797557E9</v>
+        <v>1.834032899E9</v>
       </c>
     </row>
     <row r="68">
@@ -1124,10 +1124,10 @@
         <v>67000.0</v>
       </c>
       <c r="B68" t="n" s="68">
-        <v>1.122047444E9</v>
+        <v>1.12185869E9</v>
       </c>
       <c r="C68" t="n" s="68">
-        <v>1.913924446E9</v>
+        <v>1.889600277E9</v>
       </c>
     </row>
     <row r="69">
@@ -1135,10 +1135,10 @@
         <v>68000.0</v>
       </c>
       <c r="B69" t="n" s="69">
-        <v>1.156811322E9</v>
+        <v>1.156306252E9</v>
       </c>
       <c r="C69" t="n" s="69">
-        <v>1.972220061E9</v>
+        <v>1.945219067E9</v>
       </c>
     </row>
     <row r="70">
@@ -1146,10 +1146,10 @@
         <v>69000.0</v>
       </c>
       <c r="B70" t="n" s="70">
-        <v>1.190166004E9</v>
+        <v>1.190648721E9</v>
       </c>
       <c r="C70" t="n" s="70">
-        <v>2.029359055E9</v>
+        <v>2.004983943E9</v>
       </c>
     </row>
     <row r="71">
@@ -1157,10 +1157,10 @@
         <v>70000.0</v>
       </c>
       <c r="B71" t="n" s="71">
-        <v>1.224092269E9</v>
+        <v>1.225425157E9</v>
       </c>
       <c r="C71" t="n" s="71">
-        <v>2.086829539E9</v>
+        <v>2.060253598E9</v>
       </c>
     </row>
     <row r="72">
@@ -1168,10 +1168,10 @@
         <v>71000.0</v>
       </c>
       <c r="B72" t="n" s="72">
-        <v>1.260588338E9</v>
+        <v>1.260792393E9</v>
       </c>
       <c r="C72" t="n" s="72">
-        <v>2.149250961E9</v>
+        <v>2.122250805E9</v>
       </c>
     </row>
     <row r="73">
@@ -1179,10 +1179,10 @@
         <v>72000.0</v>
       </c>
       <c r="B73" t="n" s="73">
-        <v>1.295866967E9</v>
+        <v>1.296548489E9</v>
       </c>
       <c r="C73" t="n" s="73">
-        <v>2.209787418E9</v>
+        <v>2.181780481E9</v>
       </c>
     </row>
     <row r="74">
@@ -1190,10 +1190,10 @@
         <v>73000.0</v>
       </c>
       <c r="B74" t="n" s="74">
-        <v>1.331713664E9</v>
+        <v>1.332641463E9</v>
       </c>
       <c r="C74" t="n" s="74">
-        <v>2.273871443E9</v>
+        <v>2.242710395E9</v>
       </c>
     </row>
     <row r="75">
@@ -1201,10 +1201,10 @@
         <v>74000.0</v>
       </c>
       <c r="B75" t="n" s="75">
-        <v>1.369252716E9</v>
+        <v>1.369918333E9</v>
       </c>
       <c r="C75" t="n" s="75">
-        <v>2.333709003E9</v>
+        <v>2.304113653E9</v>
       </c>
     </row>
     <row r="76">
@@ -1212,10 +1212,10 @@
         <v>75000.0</v>
       </c>
       <c r="B76" t="n" s="76">
-        <v>1.406129277E9</v>
+        <v>1.406097666E9</v>
       </c>
       <c r="C76" t="n" s="76">
-        <v>2.398702629E9</v>
+        <v>2.366224522E9</v>
       </c>
     </row>
     <row r="77">
@@ -1223,10 +1223,10 @@
         <v>76000.0</v>
       </c>
       <c r="B77" t="n" s="77">
-        <v>1.444126793E9</v>
+        <v>1.444494432E9</v>
       </c>
       <c r="C77" t="n" s="77">
-        <v>2.463910201E9</v>
+        <v>2.431192625E9</v>
       </c>
     </row>
     <row r="78">
@@ -1234,10 +1234,10 @@
         <v>77000.0</v>
       </c>
       <c r="B78" t="n" s="78">
-        <v>1.483152271E9</v>
+        <v>1.482200625E9</v>
       </c>
       <c r="C78" t="n" s="78">
-        <v>2.52936901E9</v>
+        <v>2.495083642E9</v>
       </c>
     </row>
     <row r="79">
@@ -1245,10 +1245,10 @@
         <v>78000.0</v>
       </c>
       <c r="B79" t="n" s="79">
-        <v>1.520780002E9</v>
+        <v>1.520563157E9</v>
       </c>
       <c r="C79" t="n" s="79">
-        <v>2.59396332E9</v>
+        <v>2.558179977E9</v>
       </c>
     </row>
     <row r="80">
@@ -1256,10 +1256,10 @@
         <v>79000.0</v>
       </c>
       <c r="B80" t="n" s="80">
-        <v>1.559792607E9</v>
+        <v>1.559285897E9</v>
       </c>
       <c r="C80" t="n" s="80">
-        <v>2.660482691E9</v>
+        <v>2.624335476E9</v>
       </c>
     </row>
     <row r="81">
@@ -1267,10 +1267,10 @@
         <v>80000.0</v>
       </c>
       <c r="B81" t="n" s="81">
-        <v>1.59942358E9</v>
+        <v>1.600755329E9</v>
       </c>
       <c r="C81" t="n" s="81">
-        <v>2.726735362E9</v>
+        <v>2.692114893E9</v>
       </c>
     </row>
     <row r="82">
@@ -1278,10 +1278,10 @@
         <v>81000.0</v>
       </c>
       <c r="B82" t="n" s="82">
-        <v>1.640193311E9</v>
+        <v>1.640979932E9</v>
       </c>
       <c r="C82" t="n" s="82">
-        <v>2.797815129E9</v>
+        <v>2.759069974E9</v>
       </c>
     </row>
     <row r="83">
@@ -1289,10 +1289,10 @@
         <v>82000.0</v>
       </c>
       <c r="B83" t="n" s="83">
-        <v>1.680034237E9</v>
+        <v>1.680857026E9</v>
       </c>
       <c r="C83" t="n" s="83">
-        <v>2.865976252E9</v>
+        <v>2.82817532E9</v>
       </c>
     </row>
     <row r="84">
@@ -1300,10 +1300,10 @@
         <v>83000.0</v>
       </c>
       <c r="B84" t="n" s="84">
-        <v>1.723123944E9</v>
+        <v>1.721662846E9</v>
       </c>
       <c r="C84" t="n" s="84">
-        <v>2.937501925E9</v>
+        <v>2.897899676E9</v>
       </c>
     </row>
     <row r="85">
@@ -1311,10 +1311,10 @@
         <v>84000.0</v>
       </c>
       <c r="B85" t="n" s="85">
-        <v>1.764294091E9</v>
+        <v>1.764003208E9</v>
       </c>
       <c r="C85" t="n" s="85">
-        <v>3.008133632E9</v>
+        <v>2.967258484E9</v>
       </c>
     </row>
     <row r="86">
@@ -1322,10 +1322,10 @@
         <v>85000.0</v>
       </c>
       <c r="B86" t="n" s="86">
-        <v>1.806096468E9</v>
+        <v>1.805365684E9</v>
       </c>
       <c r="C86" t="n" s="86">
-        <v>3.078032103E9</v>
+        <v>3.038520244E9</v>
       </c>
     </row>
     <row r="87">
@@ -1333,10 +1333,10 @@
         <v>86000.0</v>
       </c>
       <c r="B87" t="n" s="87">
-        <v>1.849373479E9</v>
+        <v>1.849661168E9</v>
       </c>
       <c r="C87" t="n" s="87">
-        <v>3.152725145E9</v>
+        <v>3.112380132E9</v>
       </c>
     </row>
     <row r="88">
@@ -1344,10 +1344,10 @@
         <v>87000.0</v>
       </c>
       <c r="B88" t="n" s="88">
-        <v>1.891844672E9</v>
+        <v>1.893080512E9</v>
       </c>
       <c r="C88" t="n" s="88">
-        <v>3.224970352E9</v>
+        <v>3.185270702E9</v>
       </c>
     </row>
     <row r="89">
@@ -1355,10 +1355,10 @@
         <v>88000.0</v>
       </c>
       <c r="B89" t="n" s="89">
-        <v>1.935630918E9</v>
+        <v>1.935696024E9</v>
       </c>
       <c r="C89" t="n" s="89">
-        <v>3.300921352E9</v>
+        <v>3.258923426E9</v>
       </c>
     </row>
     <row r="90">
@@ -1366,10 +1366,10 @@
         <v>89000.0</v>
       </c>
       <c r="B90" t="n" s="90">
-        <v>1.980006919E9</v>
+        <v>1.979349431E9</v>
       </c>
       <c r="C90" t="n" s="90">
-        <v>3.37760753E9</v>
+        <v>3.330413912E9</v>
       </c>
     </row>
     <row r="91">
@@ -1377,10 +1377,10 @@
         <v>90000.0</v>
       </c>
       <c r="B91" t="n" s="91">
-        <v>2.024927528E9</v>
+        <v>2.025130839E9</v>
       </c>
       <c r="C91" t="n" s="91">
-        <v>3.451586382E9</v>
+        <v>3.409822109E9</v>
       </c>
     </row>
     <row r="92">
@@ -1388,10 +1388,10 @@
         <v>91000.0</v>
       </c>
       <c r="B92" t="n" s="92">
-        <v>2.07013378E9</v>
+        <v>2.070684015E9</v>
       </c>
       <c r="C92" t="n" s="92">
-        <v>3.528114294E9</v>
+        <v>3.485572967E9</v>
       </c>
     </row>
     <row r="93">
@@ -1399,10 +1399,10 @@
         <v>92000.0</v>
       </c>
       <c r="B93" t="n" s="93">
-        <v>2.115103978E9</v>
+        <v>2.114958165E9</v>
       </c>
       <c r="C93" t="n" s="93">
-        <v>3.605654255E9</v>
+        <v>3.562998727E9</v>
       </c>
     </row>
     <row r="94">
@@ -1410,10 +1410,10 @@
         <v>93000.0</v>
       </c>
       <c r="B94" t="n" s="94">
-        <v>2.16194566E9</v>
+        <v>2.161957344E9</v>
       </c>
       <c r="C94" t="n" s="94">
-        <v>3.687141563E9</v>
+        <v>3.639365371E9</v>
       </c>
     </row>
     <row r="95">
@@ -1421,10 +1421,10 @@
         <v>94000.0</v>
       </c>
       <c r="B95" t="n" s="95">
-        <v>2.208588182E9</v>
+        <v>2.208645282E9</v>
       </c>
       <c r="C95" t="n" s="95">
-        <v>3.764647295E9</v>
+        <v>3.71715267E9</v>
       </c>
     </row>
     <row r="96">
@@ -1432,10 +1432,10 @@
         <v>95000.0</v>
       </c>
       <c r="B96" t="n" s="96">
-        <v>2.255022149E9</v>
+        <v>2.256291853E9</v>
       </c>
       <c r="C96" t="n" s="96">
-        <v>3.844976955E9</v>
+        <v>3.797242152E9</v>
       </c>
     </row>
     <row r="97">
@@ -1443,10 +1443,10 @@
         <v>96000.0</v>
       </c>
       <c r="B97" t="n" s="97">
-        <v>2.304058704E9</v>
+        <v>2.30491107E9</v>
       </c>
       <c r="C97" t="n" s="97">
-        <v>3.926944005E9</v>
+        <v>3.878814734E9</v>
       </c>
     </row>
     <row r="98">
@@ -1454,10 +1454,10 @@
         <v>97000.0</v>
       </c>
       <c r="B98" t="n" s="98">
-        <v>2.352987386E9</v>
+        <v>2.351286189E9</v>
       </c>
       <c r="C98" t="n" s="98">
-        <v>4.011530009E9</v>
+        <v>3.959705193E9</v>
       </c>
     </row>
     <row r="99">
@@ -1465,10 +1465,10 @@
         <v>98000.0</v>
       </c>
       <c r="B99" t="n" s="99">
-        <v>2.400495939E9</v>
+        <v>2.40106571E9</v>
       </c>
       <c r="C99" t="n" s="99">
-        <v>4.090189189E9</v>
+        <v>4.040120221E9</v>
       </c>
     </row>
     <row r="100">
@@ -1476,10 +1476,10 @@
         <v>99000.0</v>
       </c>
       <c r="B100" t="n" s="100">
-        <v>2.449798006E9</v>
+        <v>2.450989349E9</v>
       </c>
       <c r="C100" t="n" s="100">
-        <v>4.172962107E9</v>
+        <v>4.122520705E9</v>
       </c>
     </row>
     <row r="101">
@@ -1487,10 +1487,10 @@
         <v>100000.0</v>
       </c>
       <c r="B101" t="n" s="101">
-        <v>2.499446093E9</v>
+        <v>2.500760952E9</v>
       </c>
       <c r="C101" t="n" s="101">
-        <v>4.260845392E9</v>
+        <v>4.207206763E9</v>
       </c>
     </row>
   </sheetData>
